--- a/biology/Histoire de la zoologie et de la botanique/Hook/Hook..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hook/Hook..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sir William Jackson Hooker, né le 6 juillet 1785 à Norwich et mort le 12 août 1865 à Kew, est un botaniste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Joseph Hooker, William Jackson Hooker fréquente la Norwich School (en) puis obtient son Doctorat of Laws à l'université de Glasgow et un doctorat honoris causa en droit civil à l'université d'Oxford. 
 Il étudie la flore d’Écosse (1806), d’Islande (1809), de France, de Suisse et d’Italie (1814). Il s’installe à Halesworth, dans le Suffolk en 1815 et y demeure jusqu’en 1820. Il devient alors titulaire de la Chaire royale de botanique à l’université de Glasgow, puis dirige les Jardins botaniques royaux de Kew à partir de 1841, fonction qu’il conserve jusqu’à sa mort. Il fonde avec John Stevens Henslow, à Kew, le premier muséum consacré aux végétaux d’importance économique en 1847.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il est l’auteur de recherches sur les fougères et sur les mousses, ainsi que de nombreux livres de botanique dont :
 British Jungermanniæ (1816).
@@ -582,7 +598,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son fils, l’explorateur et botaniste Sir Joseph Dalton Hooker, lui succède à la tête des Kew Gardens.
 </t>
